--- a/Assignment9/sim_business.xlsx
+++ b/Assignment9/sim_business.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Angewandte Modellierung\Angewandte-Modellierung-25-Colmant\Assignment9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1394AF-EDAD-46E2-B44D-E904A4662867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7B5FE7-AE95-4352-AD8C-4683B9270552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19155" yWindow="45" windowWidth="19245" windowHeight="21555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19155" yWindow="45" windowWidth="19245" windowHeight="21555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monte Carlo" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1039,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,6 +1099,10 @@
         <f>A2^2</f>
         <v>1</v>
       </c>
+      <c r="D2" s="1">
+        <f>SUM($B$2:B2)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -1089,6 +1115,10 @@
         <f t="shared" ref="C3:C7" si="0">A3^2</f>
         <v>4</v>
       </c>
+      <c r="D3" s="1">
+        <f>SUM($B$2:B3)</f>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -1101,6 +1131,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="D4" s="1">
+        <f>SUM($B$2:B4)</f>
+        <v>0.41666666666666663</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -1113,6 +1147,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="D5" s="1">
+        <f>SUM($B$2:B5)</f>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1125,6 +1163,10 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="D6" s="1">
+        <f>SUM($B$2:B6)</f>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1137,13 +1179,21 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="D7" s="1">
+        <f>SUM($B$2:B7)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <f>SUM(B2:B7)</f>
+        <f>SUM($B$2:B7)</f>
         <v>1</v>
       </c>
       <c r="C9" s="1"/>
+      <c r="D9" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">INDEX($A$2:$A$7,MAX(1,MATCH(RAND(),$D$2:$D$7,1)))</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1196,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,19 +1341,19 @@
       </c>
       <c r="B6" s="26">
         <f ca="1">_xlfn.NORM.INV(RAND(), B2, B3)</f>
-        <v>205.14669669798141</v>
+        <v>231.73630034248325</v>
       </c>
       <c r="C6" s="26">
         <f ca="1">_xlfn.NORM.INV(RAND(), B2, B3)</f>
-        <v>172.37486999530591</v>
+        <v>218.2294725520388</v>
       </c>
       <c r="D6" s="26">
         <f ca="1">_xlfn.NORM.INV(RAND(), C2, C3)</f>
-        <v>75.360761108600641</v>
+        <v>57.647858428060765</v>
       </c>
       <c r="E6" s="26">
         <f ca="1">_xlfn.NORM.INV(RAND(), E2, E3)</f>
-        <v>19.490779339300957</v>
+        <v>49.704833022250568</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="27"/>
